--- a/data/trans_dic/P44A$otras-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P44A$otras-Dificultad-trans_dic.xlsx
@@ -675,26 +675,26 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.04271143515775647</v>
+        <v>0.04236413328080585</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.06452626927619592</v>
+        <v>0.07367539217537496</v>
       </c>
       <c r="E5" s="5" t="inlineStr"/>
       <c r="F5" s="5" t="n">
-        <v>0.1966469807098482</v>
+        <v>0.196784807937899</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.0842141563350033</v>
+        <v>0.09061245243213976</v>
       </c>
       <c r="H5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.1551135972195851</v>
+        <v>0.1578340677415664</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.1037429007020992</v>
+        <v>0.1044634747262573</v>
       </c>
       <c r="K5" s="5" t="n">
         <v>0</v>
@@ -708,29 +708,29 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.3214480228136729</v>
+        <v>0.3185752755234217</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.306413270283912</v>
+        <v>0.3116516765003143</v>
       </c>
       <c r="E6" s="5" t="inlineStr"/>
       <c r="F6" s="5" t="n">
-        <v>0.5508171066585966</v>
+        <v>0.5277594983845315</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.3886226303723177</v>
+        <v>0.3939143169638799</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.02109566010310162</v>
+        <v>0.02139978821183552</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.3887101887214898</v>
+        <v>0.4006514420655585</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.2914712954010584</v>
+        <v>0.3041592928257857</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.01431447874821578</v>
+        <v>0.01283393283700592</v>
       </c>
     </row>
     <row r="7">
@@ -780,28 +780,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.03212859310171894</v>
+        <v>0.03094901615852172</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.06250519670866422</v>
+        <v>0.06473653053827545</v>
       </c>
       <c r="E8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1031463696117183</v>
+        <v>0.1077535814376583</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.1781933113740913</v>
+        <v>0.1876442072867865</v>
       </c>
       <c r="H8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.1009531331165156</v>
+        <v>0.1020047720775839</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1605712145086207</v>
+        <v>0.1568523680235846</v>
       </c>
       <c r="K8" s="5" t="n">
         <v>0</v>
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.2896973138257704</v>
+        <v>0.2830565299057423</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.318701614213687</v>
+        <v>0.315822870550958</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.02113785623207222</v>
+        <v>0.0205626608347987</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.4212235780135178</v>
+        <v>0.4557542013578873</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.5310554695128648</v>
+        <v>0.5411234726928994</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.02392338424886655</v>
+        <v>0.03053367693695752</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.2882201011375258</v>
+        <v>0.2956262751950879</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.3649754182447419</v>
+        <v>0.3649409953447909</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.01608814601334727</v>
+        <v>0.01396776646353326</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>0.2705670190325882</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.01279965863528485</v>
+        <v>0.01279965863528484</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>0.5292575899713349</v>
@@ -869,7 +869,7 @@
         <v>0.2050670615762891</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>0.004684076866240713</v>
+        <v>0.004684076866240716</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>0.3806198187629073</v>
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1117870253839656</v>
+        <v>0.1107690468081608</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1450548483204936</v>
+        <v>0.1445477798006831</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.002898757268962484</v>
+        <v>0.00289056625251183</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.2964074115899596</v>
+        <v>0.3212140558618768</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.08757266676889236</v>
+        <v>0.07044598178089388</v>
       </c>
       <c r="H11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.26031136207467</v>
+        <v>0.2458315149335388</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1464074115658104</v>
+        <v>0.1611253323828528</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.002066558683508819</v>
+        <v>0.002020586563638508</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.4596620148901319</v>
+        <v>0.4757828306131499</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.423887992358335</v>
+        <v>0.4409089781656902</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.04468987480513052</v>
+        <v>0.040213132410797</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.7385362690952575</v>
+        <v>0.7377847919495285</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.3940835826889581</v>
+        <v>0.3670951444352288</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.02877815259076964</v>
+        <v>0.02556589084442753</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.5496390071871795</v>
+        <v>0.53421969649209</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.3588708912401605</v>
+        <v>0.3661989040131083</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.02376089603389727</v>
+        <v>0.02405285389981835</v>
       </c>
     </row>
     <row r="13">
@@ -978,7 +978,7 @@
         <v>0.260273068098505</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>0.003013334615577028</v>
+        <v>0.003013334615577027</v>
       </c>
       <c r="I13" s="5" t="n">
         <v>0.1976045881676342</v>
@@ -998,28 +998,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.03906767763355879</v>
+        <v>0.03713154398710827</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1549616883221732</v>
+        <v>0.1687811356152361</v>
       </c>
       <c r="E14" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.08728917645430426</v>
+        <v>0.1028016829747834</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.09489358645257392</v>
+        <v>0.08988197994734883</v>
       </c>
       <c r="H14" s="5" t="n">
         <v>0</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.08484365440622194</v>
+        <v>0.09296301150877602</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1685447035834173</v>
+        <v>0.173529472262231</v>
       </c>
       <c r="K14" s="5" t="n">
         <v>0</v>
@@ -1033,31 +1033,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.3352078280398548</v>
+        <v>0.3181241495009418</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.4818915625845921</v>
+        <v>0.5004815920341849</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.01445388446695092</v>
+        <v>0.01587847772390297</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.5556742414779188</v>
+        <v>0.5875465296801862</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.5177846529248465</v>
+        <v>0.525077472493426</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.01236195253756292</v>
+        <v>0.01615338119467731</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.376361848217049</v>
+        <v>0.3738048508425688</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.4474525725829378</v>
+        <v>0.4364815555749691</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.01104029857635359</v>
+        <v>0.01146653517688854</v>
       </c>
     </row>
     <row r="16">
@@ -1078,7 +1078,7 @@
         <v>0.2247462546752532</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.006127713063698575</v>
+        <v>0.006127713063698577</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>0.3485983603345983</v>
@@ -1107,31 +1107,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.09921729763617632</v>
+        <v>0.09740131407150063</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1672853278839328</v>
+        <v>0.1594812847554992</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.002059216787030802</v>
+        <v>0.002050436174827542</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.2630144275260097</v>
+        <v>0.2562301120616553</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.1946421719066587</v>
+        <v>0.1865110828095554</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.001262547211317987</v>
+        <v>0.001266799688605594</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.1967439282811159</v>
+        <v>0.1969485642965454</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.1912732112034251</v>
+        <v>0.1921575154804474</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.002459813934132708</v>
+        <v>0.002516274494487711</v>
       </c>
     </row>
     <row r="18">
@@ -1142,31 +1142,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.260840426262801</v>
+        <v>0.2482006372035832</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.301492273918935</v>
+        <v>0.2955913075047875</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.01460327736393971</v>
+        <v>0.01457601514990012</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.4664131157006827</v>
+        <v>0.4417136915463675</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.3643862360407529</v>
+        <v>0.3587874858519958</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.01025597890132723</v>
+        <v>0.01041381177178216</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.3211729366833092</v>
+        <v>0.3186196956740068</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.2967677075026448</v>
+        <v>0.2999151918628151</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.01006661582969527</v>
+        <v>0.009764679026888273</v>
       </c>
     </row>
     <row r="19">
@@ -1395,26 +1395,26 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>997</v>
+        <v>989</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>2799</v>
+        <v>3196</v>
       </c>
       <c r="E6" s="6" t="inlineStr"/>
       <c r="F6" s="6" t="n">
-        <v>6377</v>
+        <v>6382</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>2826</v>
+        <v>3040</v>
       </c>
       <c r="H6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>8651</v>
+        <v>8802</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>7982</v>
+        <v>8037</v>
       </c>
       <c r="K6" s="6" t="n">
         <v>0</v>
@@ -1428,29 +1428,29 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>7502</v>
+        <v>7435</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>13293</v>
+        <v>13521</v>
       </c>
       <c r="E7" s="6" t="inlineStr"/>
       <c r="F7" s="6" t="n">
-        <v>17863</v>
+        <v>17115</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>13039</v>
+        <v>13217</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>1891</v>
+        <v>1919</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>21678</v>
+        <v>22344</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>22425</v>
+        <v>23401</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>2145</v>
+        <v>1923</v>
       </c>
     </row>
     <row r="8">
@@ -1535,28 +1535,28 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>1049</v>
+        <v>1010</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>2446</v>
+        <v>2533</v>
       </c>
       <c r="E10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>3265</v>
+        <v>3411</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>5932</v>
+        <v>6247</v>
       </c>
       <c r="H10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>6491</v>
+        <v>6559</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>11630</v>
+        <v>11360</v>
       </c>
       <c r="K10" s="6" t="n">
         <v>0</v>
@@ -1570,31 +1570,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>9458</v>
+        <v>9241</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>12472</v>
+        <v>12360</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>3099</v>
+        <v>3015</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>13333</v>
+        <v>14426</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>17680</v>
+        <v>18015</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>3594</v>
+        <v>4587</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>18533</v>
+        <v>19009</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>26434</v>
+        <v>26432</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>4776</v>
+        <v>4146</v>
       </c>
     </row>
     <row r="12">
@@ -1679,31 +1679,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>3249</v>
+        <v>3220</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>5573</v>
+        <v>5553</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>7049</v>
+        <v>7639</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>2604</v>
+        <v>2095</v>
       </c>
       <c r="H14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>13757</v>
+        <v>12992</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>9978</v>
+        <v>10981</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>661</v>
+        <v>647</v>
       </c>
     </row>
     <row r="15">
@@ -1714,31 +1714,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>13361</v>
+        <v>13830</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>16285</v>
+        <v>16939</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>8006</v>
+        <v>7204</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>17565</v>
+        <v>17547</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>11718</v>
+        <v>10916</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>4053</v>
+        <v>3601</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>29048</v>
+        <v>28234</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>24458</v>
+        <v>24958</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>7603</v>
+        <v>7697</v>
       </c>
     </row>
     <row r="16">
@@ -1823,28 +1823,28 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>950</v>
+        <v>903</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>5737</v>
+        <v>6249</v>
       </c>
       <c r="E18" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>1666</v>
+        <v>1962</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>1855</v>
+        <v>1757</v>
       </c>
       <c r="H18" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>3682</v>
+        <v>4034</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>9534</v>
+        <v>9816</v>
       </c>
       <c r="K18" s="6" t="n">
         <v>0</v>
@@ -1858,31 +1858,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>8150</v>
+        <v>7734</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>17841</v>
+        <v>18529</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>2618</v>
+        <v>2876</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>10606</v>
+        <v>11214</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>10120</v>
+        <v>10263</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>1774</v>
+        <v>2318</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>16333</v>
+        <v>16222</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>25311</v>
+        <v>24691</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>3584</v>
+        <v>3722</v>
       </c>
     </row>
     <row r="20">
@@ -1967,31 +1967,31 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>10851</v>
+        <v>10652</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>26424</v>
+        <v>25192</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>1168</v>
+        <v>1163</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>28130</v>
+        <v>27404</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>22603</v>
+        <v>21659</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>42559</v>
+        <v>42604</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>52425</v>
+        <v>52668</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>2684</v>
+        <v>2746</v>
       </c>
     </row>
     <row r="23">
@@ -2002,31 +2002,31 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>28527</v>
+        <v>27145</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>47624</v>
+        <v>46692</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>8282</v>
+        <v>8266</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>49883</v>
+        <v>47242</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>42315</v>
+        <v>41665</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>5376</v>
+        <v>5459</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>69475</v>
+        <v>68923</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>81340</v>
+        <v>82203</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>10986</v>
+        <v>10657</v>
       </c>
     </row>
     <row r="24">
